--- a/Tests/Щелевой заряд/data_4.xlsx
+++ b/Tests/Щелевой заряд/data_4.xlsx
@@ -405,10 +405,10 @@
         <v>0.024</v>
       </c>
       <c r="C2">
-        <v>1.801</v>
+        <v>1.795</v>
       </c>
       <c r="D2">
-        <v>2377.617</v>
+        <v>2377.376</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -416,13 +416,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.039</v>
+        <v>0.04</v>
       </c>
       <c r="C3">
-        <v>6.592</v>
+        <v>6.574</v>
       </c>
       <c r="D3">
-        <v>3301.244</v>
+        <v>3302.624</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -450,7 +450,7 @@
         <v>0.163</v>
       </c>
       <c r="D5">
-        <v>2040.248</v>
+        <v>2040.227</v>
       </c>
     </row>
   </sheetData>
